--- a/scripts/old_data_migration_to_xml/FilesToRead/MappedExcel_Kolhapur/FF_Old_New_QuestionMapping_Tanmayee.xlsx
+++ b/scripts/old_data_migration_to_xml/FilesToRead/MappedExcel_Kolhapur/FF_Old_New_QuestionMapping_Tanmayee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="303" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="303" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FFOldNewQuesMapping" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="782">
   <si>
     <t>begin_group</t>
   </si>
@@ -346,9 +346,6 @@
     <t>Ward A</t>
   </si>
   <si>
-    <t>https://www.economist.com/news/leaders/21721656-data-economy-demands-new-approach-antitrust-rules-worlds-most-valuable-resource</t>
-  </si>
-  <si>
     <t>PC02</t>
   </si>
   <si>
@@ -1996,12 +1993,21 @@
     <t>io7sk40</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>Kutcha (Non-permanent)</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>Semi-pucca (Semi-permanent)</t>
   </si>
   <si>
+    <t>03</t>
+  </si>
+  <si>
     <t>Pucca (Permanent)</t>
   </si>
   <si>
@@ -2017,33 +2023,60 @@
     <t>uc7ui01</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Agriculture/Horticulture</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Street Vender</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Domestic Servent</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Sanitation Worker</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Rag Picker</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>Watchman/security</t>
   </si>
   <si>
     <t>6, 30</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Construction Worker</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Industrial Worker</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Contract/casual Worker</t>
   </si>
   <si>
@@ -2311,24 +2344,37 @@
     <t>Adoloscent girls</t>
   </si>
   <si>
+    <t>04</t>
+  </si>
+  <si>
     <t>Adult females</t>
   </si>
   <si>
+    <t>05</t>
+  </si>
+  <si>
     <t>Old members</t>
   </si>
   <si>
+    <t>06</t>
+  </si>
+  <si>
     <t>Adult males</t>
+  </si>
+  <si>
+    <t>07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2350,6 +2396,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2394,7 +2446,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2409,6 +2461,22 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2430,7 +2498,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -3398,8 +3466,8 @@
   </sheetPr>
   <dimension ref="B1:J623"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A591" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C488" activeCellId="0" sqref="C488"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3482,8 +3550,8 @@
       <c r="D6" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>109</v>
+      <c r="E6" s="0" t="n">
+        <v>3789</v>
       </c>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
@@ -3493,10 +3561,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>111</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>3789</v>
@@ -3509,10 +3577,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>113</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>3789</v>
@@ -3525,10 +3593,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3789</v>
@@ -3541,10 +3609,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3789</v>
@@ -3557,10 +3625,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>3789</v>
@@ -3573,10 +3641,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>3875</v>
@@ -3589,10 +3657,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>123</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>3875</v>
@@ -3605,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>125</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>3875</v>
@@ -3621,10 +3689,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>3875</v>
@@ -3637,10 +3705,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>129</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>3875</v>
@@ -3653,10 +3721,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>131</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>3875</v>
@@ -3669,10 +3737,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>133</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>3875</v>
@@ -3685,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>3875</v>
@@ -3701,10 +3769,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>137</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>3875</v>
@@ -3717,10 +3785,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>139</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>3875</v>
@@ -3733,10 +3801,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>3875</v>
@@ -3749,10 +3817,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>3875</v>
@@ -3765,10 +3833,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>3875</v>
@@ -3781,10 +3849,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>3875</v>
@@ -3797,10 +3865,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>3875</v>
@@ -3813,10 +3881,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>7149</v>
@@ -3829,10 +3897,10 @@
         <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>152</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>153</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>7149</v>
@@ -3845,10 +3913,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>155</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>7149</v>
@@ -3861,10 +3929,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>157</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>7149</v>
@@ -3877,10 +3945,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>159</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>7149</v>
@@ -3893,10 +3961,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>161</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>7149</v>
@@ -3909,10 +3977,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>7149</v>
@@ -3925,10 +3993,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>165</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>7149</v>
@@ -3941,10 +4009,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>167</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>2526</v>
@@ -3957,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>169</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>2526</v>
@@ -3973,10 +4041,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>171</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2526</v>
@@ -3997,7 +4065,7 @@
         <v>272537890801</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>107</v>
@@ -4013,7 +4081,7 @@
         <v>272537890802</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>107</v>
@@ -4029,7 +4097,7 @@
         <v>272537890804</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>107</v>
@@ -4045,7 +4113,7 @@
         <v>272537891001</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>107</v>
@@ -4061,7 +4129,7 @@
         <v>272537891002</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>107</v>
@@ -4077,7 +4145,7 @@
         <v>272537891003</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>107</v>
@@ -4093,7 +4161,7 @@
         <v>272537891004</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>107</v>
@@ -4109,7 +4177,7 @@
         <v>272537891801</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>107</v>
@@ -4125,7 +4193,7 @@
         <v>272537891802</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>107</v>
@@ -4141,7 +4209,7 @@
         <v>272537891901</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>107</v>
@@ -4157,7 +4225,7 @@
         <v>272537892501</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>107</v>
@@ -4173,7 +4241,7 @@
         <v>272537892502</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>107</v>
@@ -4189,7 +4257,7 @@
         <v>272537892601</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>107</v>
@@ -4205,7 +4273,7 @@
         <v>272537892602</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>107</v>
@@ -4221,7 +4289,7 @@
         <v>272537892603</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>107</v>
@@ -4237,7 +4305,7 @@
         <v>272537892702</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>107</v>
@@ -4253,7 +4321,7 @@
         <v>272537892703</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>107</v>
@@ -4269,7 +4337,7 @@
         <v>272537892704</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>107</v>
@@ -4285,10 +4353,10 @@
         <v>272537892001</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I57" s="0"/>
       <c r="J57" s="0"/>
@@ -4301,10 +4369,10 @@
         <v>272537892101</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I58" s="0"/>
       <c r="J58" s="0"/>
@@ -4317,10 +4385,10 @@
         <v>272537892102</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I59" s="0"/>
       <c r="J59" s="0"/>
@@ -4333,10 +4401,10 @@
         <v>272537892103</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I60" s="0"/>
       <c r="J60" s="0"/>
@@ -4349,10 +4417,10 @@
         <v>272537892104</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I61" s="0"/>
       <c r="J61" s="0"/>
@@ -4365,10 +4433,10 @@
         <v>272537892105</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I62" s="0"/>
       <c r="J62" s="0"/>
@@ -4381,10 +4449,10 @@
         <v>272537892201</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I63" s="0"/>
       <c r="J63" s="0"/>
@@ -4397,10 +4465,10 @@
         <v>272537892401</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I64" s="0"/>
       <c r="J64" s="0"/>
@@ -4413,10 +4481,10 @@
         <v>272537892402</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I65" s="0"/>
       <c r="J65" s="0"/>
@@ -4429,10 +4497,10 @@
         <v>272537894201</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I66" s="0"/>
       <c r="J66" s="0"/>
@@ -4445,10 +4513,10 @@
         <v>272537894202</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I67" s="0"/>
       <c r="J67" s="0"/>
@@ -4461,10 +4529,10 @@
         <v>272537894203</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I68" s="0"/>
       <c r="J68" s="0"/>
@@ -4477,10 +4545,10 @@
         <v>272537894204</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I69" s="0"/>
       <c r="J69" s="0"/>
@@ -4493,10 +4561,10 @@
         <v>272537894205</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I70" s="0"/>
       <c r="J70" s="0"/>
@@ -4509,10 +4577,10 @@
         <v>272537894206</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I71" s="0"/>
       <c r="J71" s="0"/>
@@ -4525,10 +4593,10 @@
         <v>272537895201</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I72" s="0"/>
       <c r="J72" s="0"/>
@@ -4541,10 +4609,10 @@
         <v>272537895202</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I73" s="0"/>
       <c r="J73" s="0"/>
@@ -4557,10 +4625,10 @@
         <v>272537895301</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I74" s="0"/>
       <c r="J74" s="0"/>
@@ -4573,10 +4641,10 @@
         <v>272537895302</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I75" s="0"/>
       <c r="J75" s="0"/>
@@ -4589,10 +4657,10 @@
         <v>272537892106</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I76" s="0"/>
       <c r="J76" s="0"/>
@@ -4605,10 +4673,10 @@
         <v>272537893701</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I77" s="0"/>
       <c r="J77" s="0"/>
@@ -4621,10 +4689,10 @@
         <v>272537893702</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I78" s="0"/>
       <c r="J78" s="0"/>
@@ -4637,10 +4705,10 @@
         <v>272537893703</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I79" s="0"/>
       <c r="J79" s="0"/>
@@ -4653,10 +4721,10 @@
         <v>272537894001</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I80" s="0"/>
       <c r="J80" s="0"/>
@@ -4669,10 +4737,10 @@
         <v>272537894101</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I81" s="0"/>
       <c r="J81" s="0"/>
@@ -4685,10 +4753,10 @@
         <v>272537894102</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I82" s="0"/>
       <c r="J82" s="0"/>
@@ -4701,10 +4769,10 @@
         <v>272537894207</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I83" s="0"/>
       <c r="J83" s="0"/>
@@ -4717,10 +4785,10 @@
         <v>272537896101</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I84" s="0"/>
       <c r="J84" s="0"/>
@@ -4733,10 +4801,10 @@
         <v>272537896102</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I85" s="0"/>
       <c r="J85" s="0"/>
@@ -4749,10 +4817,10 @@
         <v>272537896201</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I86" s="0"/>
       <c r="J86" s="0"/>
@@ -4765,10 +4833,10 @@
         <v>272537896202</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I87" s="0"/>
       <c r="J87" s="0"/>
@@ -4781,10 +4849,10 @@
         <v>272537896203</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I88" s="0"/>
       <c r="J88" s="0"/>
@@ -4797,10 +4865,10 @@
         <v>272537896204</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I89" s="0"/>
       <c r="J89" s="0"/>
@@ -4813,10 +4881,10 @@
         <v>272537896301</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I90" s="0"/>
       <c r="J90" s="0"/>
@@ -4829,10 +4897,10 @@
         <v>272537896401</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I91" s="0"/>
       <c r="J91" s="0"/>
@@ -4845,10 +4913,10 @@
         <v>272537896402</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I92" s="0"/>
       <c r="J92" s="0"/>
@@ -4861,10 +4929,10 @@
         <v>272537893801</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I93" s="0"/>
       <c r="J93" s="0"/>
@@ -4877,10 +4945,10 @@
         <v>272537893802</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I94" s="0"/>
       <c r="J94" s="0"/>
@@ -4893,10 +4961,10 @@
         <v>272537894301</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I95" s="0"/>
       <c r="J95" s="0"/>
@@ -4909,10 +4977,10 @@
         <v>272537894302</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I96" s="0"/>
       <c r="J96" s="0"/>
@@ -4925,10 +4993,10 @@
         <v>272537894303</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I97" s="0"/>
       <c r="J97" s="0"/>
@@ -4941,10 +5009,10 @@
         <v>272537894304</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I98" s="0"/>
       <c r="J98" s="0"/>
@@ -4957,10 +5025,10 @@
         <v>272537894305</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I99" s="0"/>
       <c r="J99" s="0"/>
@@ -4973,10 +5041,10 @@
         <v>272537894306</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I100" s="0"/>
       <c r="J100" s="0"/>
@@ -4989,10 +5057,10 @@
         <v>272537894307</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I101" s="0"/>
       <c r="J101" s="0"/>
@@ -5005,10 +5073,10 @@
         <v>272537894308</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I102" s="0"/>
       <c r="J102" s="0"/>
@@ -5021,10 +5089,10 @@
         <v>272537894309</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I103" s="0"/>
       <c r="J103" s="0"/>
@@ -5037,10 +5105,10 @@
         <v>272537894401</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I104" s="0"/>
       <c r="J104" s="0"/>
@@ -5053,10 +5121,10 @@
         <v>272537894501</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I105" s="0"/>
       <c r="J105" s="0"/>
@@ -5069,10 +5137,10 @@
         <v>272537894801</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I106" s="0"/>
       <c r="J106" s="0"/>
@@ -5085,10 +5153,10 @@
         <v>272537895602</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I107" s="0"/>
       <c r="J107" s="0"/>
@@ -5101,10 +5169,10 @@
         <v>272537894502</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I108" s="0"/>
       <c r="J108" s="0"/>
@@ -5117,10 +5185,10 @@
         <v>272537894310</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I109" s="0"/>
       <c r="J109" s="0"/>
@@ -5133,10 +5201,10 @@
         <v>272537890601</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I110" s="0"/>
       <c r="J110" s="0"/>
@@ -5149,10 +5217,10 @@
         <v>272537890701</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I111" s="0"/>
       <c r="J111" s="0"/>
@@ -5165,10 +5233,10 @@
         <v>272537892901</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I112" s="0"/>
       <c r="J112" s="0"/>
@@ -5181,10 +5249,10 @@
         <v>272537892902</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I113" s="0"/>
       <c r="J113" s="0"/>
@@ -5197,10 +5265,10 @@
         <v>272537892903</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I114" s="0"/>
       <c r="J114" s="0"/>
@@ -5213,10 +5281,10 @@
         <v>272537893601</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I115" s="0"/>
       <c r="J115" s="0"/>
@@ -5229,10 +5297,10 @@
         <v>272537890401</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I116" s="0"/>
       <c r="J116" s="0"/>
@@ -5245,10 +5313,10 @@
         <v>272537892801</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I117" s="0"/>
       <c r="J117" s="0"/>
@@ -5261,10 +5329,10 @@
         <v>272537891101</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I118" s="0"/>
       <c r="J118" s="0"/>
@@ -5277,10 +5345,10 @@
         <v>272537891301</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I119" s="0"/>
       <c r="J119" s="0"/>
@@ -5293,10 +5361,10 @@
         <v>272537891201</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I120" s="0"/>
       <c r="J120" s="0"/>
@@ -5309,10 +5377,10 @@
         <v>272538750601</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I121" s="0"/>
       <c r="J121" s="0"/>
@@ -5325,10 +5393,10 @@
         <v>272538750602</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I122" s="0"/>
       <c r="J122" s="0"/>
@@ -5341,10 +5409,10 @@
         <v>272538750603</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I123" s="0"/>
       <c r="J123" s="0"/>
@@ -5357,10 +5425,10 @@
         <v>272538750604</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I124" s="0"/>
       <c r="J124" s="0"/>
@@ -5373,10 +5441,10 @@
         <v>272538750605</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I125" s="0"/>
       <c r="J125" s="0"/>
@@ -5389,10 +5457,10 @@
         <v>272538750606</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I126" s="0"/>
       <c r="J126" s="0"/>
@@ -5405,10 +5473,10 @@
         <v>272538750607</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I127" s="0"/>
       <c r="J127" s="0"/>
@@ -5421,10 +5489,10 @@
         <v>272538750608</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I128" s="0"/>
       <c r="J128" s="0"/>
@@ -5437,10 +5505,10 @@
         <v>272538750609</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I129" s="0"/>
       <c r="J129" s="0"/>
@@ -5453,10 +5521,10 @@
         <v>272538750610</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I130" s="0"/>
       <c r="J130" s="0"/>
@@ -5469,10 +5537,10 @@
         <v>272538750611</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I131" s="0"/>
       <c r="J131" s="0"/>
@@ -5485,10 +5553,10 @@
         <v>272538750612</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I132" s="0"/>
       <c r="J132" s="0"/>
@@ -5501,10 +5569,10 @@
         <v>272538750613</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I133" s="0"/>
       <c r="J133" s="0"/>
@@ -5517,10 +5585,10 @@
         <v>272538750614</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I134" s="0"/>
       <c r="J134" s="0"/>
@@ -5533,10 +5601,10 @@
         <v>272538750615</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I135" s="0"/>
       <c r="J135" s="0"/>
@@ -5549,10 +5617,10 @@
         <v>272538750616</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I136" s="0"/>
       <c r="J136" s="0"/>
@@ -5565,10 +5633,10 @@
         <v>272538750701</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I137" s="0"/>
       <c r="J137" s="0"/>
@@ -5581,10 +5649,10 @@
         <v>272538750702</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I138" s="0"/>
       <c r="J138" s="0"/>
@@ -5597,10 +5665,10 @@
         <v>272538750703</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I139" s="0"/>
       <c r="J139" s="0"/>
@@ -5613,10 +5681,10 @@
         <v>272538750704</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I140" s="0"/>
       <c r="J140" s="0"/>
@@ -5629,10 +5697,10 @@
         <v>272538750705</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I141" s="0"/>
       <c r="J141" s="0"/>
@@ -5645,10 +5713,10 @@
         <v>272538750706</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I142" s="0"/>
       <c r="J142" s="0"/>
@@ -5661,10 +5729,10 @@
         <v>272538750707</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I143" s="0"/>
       <c r="J143" s="0"/>
@@ -5677,10 +5745,10 @@
         <v>272538750708</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I144" s="0"/>
       <c r="J144" s="0"/>
@@ -5693,10 +5761,10 @@
         <v>272538750801</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I145" s="0"/>
       <c r="J145" s="0"/>
@@ -5709,10 +5777,10 @@
         <v>272538750802</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I146" s="0"/>
       <c r="J146" s="0"/>
@@ -5725,10 +5793,10 @@
         <v>272538750901</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I147" s="0"/>
       <c r="J147" s="0"/>
@@ -5741,10 +5809,10 @@
         <v>272538751001</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I148" s="0"/>
       <c r="J148" s="0"/>
@@ -5757,10 +5825,10 @@
         <v>272538751101</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I149" s="0"/>
       <c r="J149" s="0"/>
@@ -5773,10 +5841,10 @@
         <v>272538751102</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I150" s="0"/>
       <c r="J150" s="0"/>
@@ -5789,10 +5857,10 @@
         <v>272538751103</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I151" s="0"/>
       <c r="J151" s="0"/>
@@ -5805,10 +5873,10 @@
         <v>272538751104</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I152" s="0"/>
       <c r="J152" s="0"/>
@@ -5821,10 +5889,10 @@
         <v>272538751105</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I153" s="0"/>
       <c r="J153" s="0"/>
@@ -5837,10 +5905,10 @@
         <v>272538751201</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I154" s="0"/>
       <c r="J154" s="0"/>
@@ -5853,10 +5921,10 @@
         <v>272538751202</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I155" s="0"/>
       <c r="J155" s="0"/>
@@ -5869,10 +5937,10 @@
         <v>272538751203</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I156" s="0"/>
       <c r="J156" s="0"/>
@@ -5885,10 +5953,10 @@
         <v>272538751204</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I157" s="0"/>
       <c r="J157" s="0"/>
@@ -5901,10 +5969,10 @@
         <v>272538751205</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I158" s="0"/>
       <c r="J158" s="0"/>
@@ -5917,10 +5985,10 @@
         <v>272538751301</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I159" s="0"/>
       <c r="J159" s="0"/>
@@ -5933,10 +6001,10 @@
         <v>272538751302</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I160" s="0"/>
       <c r="J160" s="0"/>
@@ -5949,10 +6017,10 @@
         <v>272538751303</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I161" s="0"/>
       <c r="J161" s="0"/>
@@ -5965,10 +6033,10 @@
         <v>272538751305</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I162" s="0"/>
       <c r="J162" s="0"/>
@@ -5981,10 +6049,10 @@
         <v>272538751306</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I163" s="0"/>
       <c r="J163" s="0"/>
@@ -5997,10 +6065,10 @@
         <v>272538751307</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I164" s="0"/>
       <c r="J164" s="0"/>
@@ -6013,10 +6081,10 @@
         <v>272538751308</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I165" s="0"/>
       <c r="J165" s="0"/>
@@ -6029,10 +6097,10 @@
         <v>272538751309</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I166" s="0"/>
       <c r="J166" s="0"/>
@@ -6045,10 +6113,10 @@
         <v>272538751310</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I167" s="0"/>
       <c r="J167" s="0"/>
@@ -6061,10 +6129,10 @@
         <v>272538751311</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I168" s="0"/>
       <c r="J168" s="0"/>
@@ -6077,10 +6145,10 @@
         <v>272538751312</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I169" s="0"/>
       <c r="J169" s="0"/>
@@ -6093,10 +6161,10 @@
         <v>272538751313</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I170" s="0"/>
       <c r="J170" s="0"/>
@@ -6109,10 +6177,10 @@
         <v>272538752401</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I171" s="0"/>
       <c r="J171" s="0"/>
@@ -6125,10 +6193,10 @@
         <v>272538752402</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I172" s="0"/>
       <c r="J172" s="0"/>
@@ -6141,10 +6209,10 @@
         <v>272538752403</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I173" s="0"/>
       <c r="J173" s="0"/>
@@ -6157,10 +6225,10 @@
         <v>272538752404</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I174" s="0"/>
       <c r="J174" s="0"/>
@@ -6173,10 +6241,10 @@
         <v>272538752405</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I175" s="0"/>
       <c r="J175" s="0"/>
@@ -6189,10 +6257,10 @@
         <v>272538752406</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I176" s="0"/>
       <c r="J176" s="0"/>
@@ -6205,10 +6273,10 @@
         <v>272538752407</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I177" s="0"/>
       <c r="J177" s="0"/>
@@ -6221,10 +6289,10 @@
         <v>272538752408</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I178" s="0"/>
       <c r="J178" s="0"/>
@@ -6237,10 +6305,10 @@
         <v>272538752501</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I179" s="0"/>
       <c r="J179" s="0"/>
@@ -6253,10 +6321,10 @@
         <v>272538752502</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I180" s="0"/>
       <c r="J180" s="0"/>
@@ -6269,10 +6337,10 @@
         <v>272538752503</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I181" s="0"/>
       <c r="J181" s="0"/>
@@ -6285,10 +6353,10 @@
         <v>272538752504</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I182" s="0"/>
       <c r="J182" s="0"/>
@@ -6301,10 +6369,10 @@
         <v>272538752505</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I183" s="0"/>
       <c r="J183" s="0"/>
@@ -6317,10 +6385,10 @@
         <v>272538753601</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I184" s="0"/>
       <c r="J184" s="0"/>
@@ -6333,10 +6401,10 @@
         <v>272538753602</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I185" s="0"/>
       <c r="J185" s="0"/>
@@ -6349,10 +6417,10 @@
         <v>272538753603</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I186" s="0"/>
       <c r="J186" s="0"/>
@@ -6365,10 +6433,10 @@
         <v>272538753604</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I187" s="0"/>
       <c r="J187" s="0"/>
@@ -6381,10 +6449,10 @@
         <v>272538752601</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I188" s="0"/>
       <c r="J188" s="0"/>
@@ -6397,10 +6465,10 @@
         <v>272538752602</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I189" s="0"/>
       <c r="J189" s="0"/>
@@ -6413,10 +6481,10 @@
         <v>272538752605</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I190" s="0"/>
       <c r="J190" s="0"/>
@@ -6429,10 +6497,10 @@
         <v>272538752701</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I191" s="0"/>
       <c r="J191" s="0"/>
@@ -6445,10 +6513,10 @@
         <v>272538752702</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I192" s="0"/>
       <c r="J192" s="0"/>
@@ -6461,10 +6529,10 @@
         <v>272538753401</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I193" s="0"/>
       <c r="J193" s="0"/>
@@ -6477,10 +6545,10 @@
         <v>272538753001</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I194" s="0"/>
       <c r="J194" s="0"/>
@@ -6493,10 +6561,10 @@
         <v>272538753002</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I195" s="0"/>
       <c r="J195" s="0"/>
@@ -6509,10 +6577,10 @@
         <v>272538753101</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I196" s="0"/>
       <c r="J196" s="0"/>
@@ -6525,10 +6593,10 @@
         <v>272538753201</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I197" s="0"/>
       <c r="J197" s="0"/>
@@ -6541,10 +6609,10 @@
         <v>272538753202</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I198" s="0"/>
       <c r="J198" s="0"/>
@@ -6557,10 +6625,10 @@
         <v>272538753301</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I199" s="0"/>
       <c r="J199" s="0"/>
@@ -6573,10 +6641,10 @@
         <v>272538753302</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I200" s="0"/>
       <c r="J200" s="0"/>
@@ -6589,10 +6657,10 @@
         <v>272538753503</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I201" s="0"/>
       <c r="J201" s="0"/>
@@ -6605,10 +6673,10 @@
         <v>272538753504</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I202" s="0"/>
       <c r="J202" s="0"/>
@@ -6621,10 +6689,10 @@
         <v>272538753505</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I203" s="0"/>
       <c r="J203" s="0"/>
@@ -6637,10 +6705,10 @@
         <v>272538753506</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I204" s="0"/>
       <c r="J204" s="0"/>
@@ -6653,10 +6721,10 @@
         <v>272538753507</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I205" s="0"/>
       <c r="J205" s="0"/>
@@ -6669,10 +6737,10 @@
         <v>272538753508</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I206" s="0"/>
       <c r="J206" s="0"/>
@@ -6685,10 +6753,10 @@
         <v>272538753509</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I207" s="0"/>
       <c r="J207" s="0"/>
@@ -6701,10 +6769,10 @@
         <v>272538752001</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I208" s="0"/>
       <c r="J208" s="0"/>
@@ -6717,10 +6785,10 @@
         <v>272538752002</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I209" s="0"/>
       <c r="J209" s="0"/>
@@ -6733,10 +6801,10 @@
         <v>272538752003</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I210" s="0"/>
       <c r="J210" s="0"/>
@@ -6749,10 +6817,10 @@
         <v>272538752004</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I211" s="0"/>
       <c r="J211" s="0"/>
@@ -6765,10 +6833,10 @@
         <v>272538752005</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I212" s="0"/>
       <c r="J212" s="0"/>
@@ -6781,10 +6849,10 @@
         <v>272538752006</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I213" s="0"/>
       <c r="J213" s="0"/>
@@ -6797,10 +6865,10 @@
         <v>272538752007</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I214" s="0"/>
       <c r="J214" s="0"/>
@@ -6813,10 +6881,10 @@
         <v>272538752008</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I215" s="0"/>
       <c r="J215" s="0"/>
@@ -6829,10 +6897,10 @@
         <v>272538752009</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I216" s="0"/>
       <c r="J216" s="0"/>
@@ -6845,10 +6913,10 @@
         <v>272538752010</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I217" s="0"/>
       <c r="J217" s="0"/>
@@ -6861,10 +6929,10 @@
         <v>272538752011</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I218" s="0"/>
       <c r="J218" s="0"/>
@@ -6877,10 +6945,10 @@
         <v>272538752012</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I219" s="0"/>
       <c r="J219" s="0"/>
@@ -6893,10 +6961,10 @@
         <v>272538752014</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I220" s="0"/>
       <c r="J220" s="0"/>
@@ -6909,10 +6977,10 @@
         <v>272538752101</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I221" s="0"/>
       <c r="J221" s="0"/>
@@ -6925,10 +6993,10 @@
         <v>272538752102</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I222" s="0"/>
       <c r="J222" s="0"/>
@@ -6941,10 +7009,10 @@
         <v>272538752104</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I223" s="0"/>
       <c r="J223" s="0"/>
@@ -6957,10 +7025,10 @@
         <v>272538752106</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I224" s="0"/>
       <c r="J224" s="0"/>
@@ -6973,10 +7041,10 @@
         <v>272538752107</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I225" s="0"/>
       <c r="J225" s="0"/>
@@ -6989,10 +7057,10 @@
         <v>272538752108</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I226" s="0"/>
       <c r="J226" s="0"/>
@@ -7005,10 +7073,10 @@
         <v>272538752109</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I227" s="0"/>
       <c r="J227" s="0"/>
@@ -7021,10 +7089,10 @@
         <v>272538752110</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I228" s="0"/>
       <c r="J228" s="0"/>
@@ -7037,10 +7105,10 @@
         <v>272538752112</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I229" s="0"/>
       <c r="J229" s="0"/>
@@ -7053,10 +7121,10 @@
         <v>272538752201</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I230" s="0"/>
       <c r="J230" s="0"/>
@@ -7069,10 +7137,10 @@
         <v>272538752202</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I231" s="0"/>
       <c r="J231" s="0"/>
@@ -7085,10 +7153,10 @@
         <v>272538752203</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I232" s="0"/>
       <c r="J232" s="0"/>
@@ -7101,10 +7169,10 @@
         <v>272538752204</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I233" s="0"/>
       <c r="J233" s="0"/>
@@ -7117,10 +7185,10 @@
         <v>272538752205</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I234" s="0"/>
       <c r="J234" s="0"/>
@@ -7133,10 +7201,10 @@
         <v>272538752206</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I235" s="0"/>
       <c r="J235" s="0"/>
@@ -7149,10 +7217,10 @@
         <v>272538752207</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I236" s="0"/>
       <c r="J236" s="0"/>
@@ -7165,10 +7233,10 @@
         <v>272538752208</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I237" s="0"/>
       <c r="J237" s="0"/>
@@ -7181,10 +7249,10 @@
         <v>272538752209</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I238" s="0"/>
       <c r="J238" s="0"/>
@@ -7197,10 +7265,10 @@
         <v>272538752210</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I239" s="0"/>
       <c r="J239" s="0"/>
@@ -7213,10 +7281,10 @@
         <v>272538752211</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I240" s="0"/>
       <c r="J240" s="0"/>
@@ -7229,10 +7297,10 @@
         <v>272538752213</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I241" s="0"/>
       <c r="J241" s="0"/>
@@ -7245,10 +7313,10 @@
         <v>272538752214</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I242" s="0"/>
       <c r="J242" s="0"/>
@@ -7261,10 +7329,10 @@
         <v>272538752215</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I243" s="0"/>
       <c r="J243" s="0"/>
@@ -7277,10 +7345,10 @@
         <v>272538752216</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I244" s="0"/>
       <c r="J244" s="0"/>
@@ -7293,10 +7361,10 @@
         <v>272538752301</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I245" s="0"/>
       <c r="J245" s="0"/>
@@ -7309,10 +7377,10 @@
         <v>272538752302</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I246" s="0"/>
       <c r="J246" s="0"/>
@@ -7325,10 +7393,10 @@
         <v>272538752303</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I247" s="0"/>
       <c r="J247" s="0"/>
@@ -7341,10 +7409,10 @@
         <v>272538752304</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I248" s="0"/>
       <c r="J248" s="0"/>
@@ -7357,10 +7425,10 @@
         <v>272538752305</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I249" s="0"/>
       <c r="J249" s="0"/>
@@ -7373,10 +7441,10 @@
         <v>272538752306</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I250" s="0"/>
       <c r="J250" s="0"/>
@@ -7389,10 +7457,10 @@
         <v>272538752307</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I251" s="0"/>
       <c r="J251" s="0"/>
@@ -7405,10 +7473,10 @@
         <v>272538752313</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I252" s="0"/>
       <c r="J252" s="0"/>
@@ -7421,10 +7489,10 @@
         <v>272538752314</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I253" s="0"/>
       <c r="J253" s="0"/>
@@ -7437,10 +7505,10 @@
         <v>272538754001</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I254" s="0"/>
       <c r="J254" s="0"/>
@@ -7453,10 +7521,10 @@
         <v>272538754002</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I255" s="0"/>
       <c r="J255" s="0"/>
@@ -7469,10 +7537,10 @@
         <v>272538754003</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I256" s="0"/>
       <c r="J256" s="0"/>
@@ -7485,10 +7553,10 @@
         <v>272538754004</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I257" s="0"/>
       <c r="J257" s="0"/>
@@ -7501,10 +7569,10 @@
         <v>272538754006</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I258" s="0"/>
       <c r="J258" s="0"/>
@@ -7517,10 +7585,10 @@
         <v>272538754007</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I259" s="0"/>
       <c r="J259" s="0"/>
@@ -7533,10 +7601,10 @@
         <v>272538754008</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I260" s="0"/>
       <c r="J260" s="0"/>
@@ -7549,10 +7617,10 @@
         <v>272538754009</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I261" s="0"/>
       <c r="J261" s="0"/>
@@ -7565,10 +7633,10 @@
         <v>272538754011</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I262" s="0"/>
       <c r="J262" s="0"/>
@@ -7581,10 +7649,10 @@
         <v>272538754012</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I263" s="0"/>
       <c r="J263" s="0"/>
@@ -7597,10 +7665,10 @@
         <v>27253875201</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I264" s="0"/>
       <c r="J264" s="0"/>
@@ -7613,10 +7681,10 @@
         <v>27253875202</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I265" s="0"/>
       <c r="J265" s="0"/>
@@ -7629,10 +7697,10 @@
         <v>27253875302</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I266" s="0"/>
       <c r="J266" s="0"/>
@@ -7645,10 +7713,10 @@
         <v>27253875303</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I267" s="0"/>
       <c r="J267" s="0"/>
@@ -7661,10 +7729,10 @@
         <v>27253875305</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I268" s="0"/>
       <c r="J268" s="0"/>
@@ -7677,10 +7745,10 @@
         <v>27253875402</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I269" s="0"/>
       <c r="J269" s="0"/>
@@ -7693,10 +7761,10 @@
         <v>27253875403</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F270" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I270" s="0"/>
       <c r="J270" s="0"/>
@@ -7709,10 +7777,10 @@
         <v>27253875404</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I271" s="0"/>
       <c r="J271" s="0"/>
@@ -7725,10 +7793,10 @@
         <v>27253875405</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I272" s="0"/>
       <c r="J272" s="0"/>
@@ -7741,10 +7809,10 @@
         <v>27253875406</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I273" s="0"/>
       <c r="J273" s="0"/>
@@ -7757,10 +7825,10 @@
         <v>27253875407</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I274" s="0"/>
       <c r="J274" s="0"/>
@@ -7773,10 +7841,10 @@
         <v>272538751701</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I275" s="0"/>
       <c r="J275" s="0"/>
@@ -7789,10 +7857,10 @@
         <v>272538751702</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I276" s="0"/>
       <c r="J276" s="0"/>
@@ -7805,10 +7873,10 @@
         <v>272538751703</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I277" s="0"/>
       <c r="J277" s="0"/>
@@ -7821,10 +7889,10 @@
         <v>272538751704</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I278" s="0"/>
       <c r="J278" s="0"/>
@@ -7837,10 +7905,10 @@
         <v>272538751705</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I279" s="0"/>
       <c r="J279" s="0"/>
@@ -7853,10 +7921,10 @@
         <v>272538751901</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I280" s="0"/>
       <c r="J280" s="0"/>
@@ -7869,10 +7937,10 @@
         <v>272538750101</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I281" s="0"/>
       <c r="J281" s="0"/>
@@ -7885,10 +7953,10 @@
         <v>272538750501</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I282" s="0"/>
       <c r="J282" s="0"/>
@@ -7901,10 +7969,10 @@
         <v>272538750502</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I283" s="0"/>
       <c r="J283" s="0"/>
@@ -7917,10 +7985,10 @@
         <v>272538750503</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I284" s="0"/>
       <c r="J284" s="0"/>
@@ -7933,10 +8001,10 @@
         <v>272538750504</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I285" s="0"/>
       <c r="J285" s="0"/>
@@ -7949,10 +8017,10 @@
         <v>272538750505</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I286" s="0"/>
       <c r="J286" s="0"/>
@@ -7965,10 +8033,10 @@
         <v>272538750506</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I287" s="0"/>
       <c r="J287" s="0"/>
@@ -7981,10 +8049,10 @@
         <v>272538750507</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I288" s="0"/>
       <c r="J288" s="0"/>
@@ -7997,10 +8065,10 @@
         <v>272538751401</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I289" s="0"/>
       <c r="J289" s="0"/>
@@ -8013,10 +8081,10 @@
         <v>272538751402</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F290" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I290" s="0"/>
       <c r="J290" s="0"/>
@@ -8029,10 +8097,10 @@
         <v>272538751403</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F291" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I291" s="0"/>
       <c r="J291" s="0"/>
@@ -8045,10 +8113,10 @@
         <v>272538751404</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F292" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I292" s="0"/>
       <c r="J292" s="0"/>
@@ -8061,10 +8129,10 @@
         <v>272538751405</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I293" s="0"/>
       <c r="J293" s="0"/>
@@ -8077,10 +8145,10 @@
         <v>272538751406</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F294" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I294" s="0"/>
       <c r="J294" s="0"/>
@@ -8093,10 +8161,10 @@
         <v>272538751407</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I295" s="0"/>
       <c r="J295" s="0"/>
@@ -8109,10 +8177,10 @@
         <v>272538751408</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I296" s="0"/>
       <c r="J296" s="0"/>
@@ -8125,10 +8193,10 @@
         <v>272538751409</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I297" s="0"/>
       <c r="J297" s="0"/>
@@ -8141,10 +8209,10 @@
         <v>272538751410</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I298" s="0"/>
       <c r="J298" s="0"/>
@@ -8157,10 +8225,10 @@
         <v>272538751411</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I299" s="0"/>
       <c r="J299" s="0"/>
@@ -8173,10 +8241,10 @@
         <v>272538751412</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F300" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I300" s="0"/>
       <c r="J300" s="0"/>
@@ -8189,10 +8257,10 @@
         <v>272538751413</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I301" s="0"/>
       <c r="J301" s="0"/>
@@ -8205,10 +8273,10 @@
         <v>272538751501</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I302" s="0"/>
       <c r="J302" s="0"/>
@@ -8221,10 +8289,10 @@
         <v>272538751502</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I303" s="0"/>
       <c r="J303" s="0"/>
@@ -8237,10 +8305,10 @@
         <v>272538751503</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I304" s="0"/>
       <c r="J304" s="0"/>
@@ -8253,10 +8321,10 @@
         <v>272538751504</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F305" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I305" s="0"/>
       <c r="J305" s="0"/>
@@ -8269,10 +8337,10 @@
         <v>272538751505</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F306" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I306" s="0"/>
       <c r="J306" s="0"/>
@@ -8285,10 +8353,10 @@
         <v>272538751506</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I307" s="0"/>
       <c r="J307" s="0"/>
@@ -8301,10 +8369,10 @@
         <v>272538751507</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I308" s="0"/>
       <c r="J308" s="0"/>
@@ -8317,10 +8385,10 @@
         <v>272538751508</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I309" s="0"/>
       <c r="J309" s="0"/>
@@ -8333,10 +8401,10 @@
         <v>272538751509</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F310" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I310" s="0"/>
       <c r="J310" s="0"/>
@@ -8349,10 +8417,10 @@
         <v>272538751510</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F311" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I311" s="0"/>
       <c r="J311" s="0"/>
@@ -8365,10 +8433,10 @@
         <v>272538751601</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F312" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I312" s="0"/>
       <c r="J312" s="0"/>
@@ -8381,10 +8449,10 @@
         <v>272538751602</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F313" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I313" s="0"/>
       <c r="J313" s="0"/>
@@ -8397,10 +8465,10 @@
         <v>272538751603</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F314" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I314" s="0"/>
       <c r="J314" s="0"/>
@@ -8413,10 +8481,10 @@
         <v>272538751604</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I315" s="0"/>
       <c r="J315" s="0"/>
@@ -8429,10 +8497,10 @@
         <v>272538751605</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F316" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I316" s="0"/>
       <c r="J316" s="0"/>
@@ -8445,10 +8513,10 @@
         <v>272538754901</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I317" s="0"/>
       <c r="J317" s="0"/>
@@ -8461,10 +8529,10 @@
         <v>272538755101</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I318" s="0"/>
       <c r="J318" s="0"/>
@@ -8477,10 +8545,10 @@
         <v>272538755105</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I319" s="0"/>
       <c r="J319" s="0"/>
@@ -8493,10 +8561,10 @@
         <v>272538755107</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I320" s="0"/>
       <c r="J320" s="0"/>
@@ -8509,10 +8577,10 @@
         <v>272538755108</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I321" s="0"/>
       <c r="J321" s="0"/>
@@ -8525,10 +8593,10 @@
         <v>272538755803</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I322" s="0"/>
       <c r="J322" s="0"/>
@@ -8541,10 +8609,10 @@
         <v>272538755805</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I323" s="0"/>
       <c r="J323" s="0"/>
@@ -8557,10 +8625,10 @@
         <v>272538755201</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F324" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I324" s="0"/>
       <c r="J324" s="0"/>
@@ -8573,10 +8641,10 @@
         <v>272538755202</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F325" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I325" s="0"/>
       <c r="J325" s="0"/>
@@ -8589,10 +8657,10 @@
         <v>272538755203</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F326" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I326" s="0"/>
       <c r="J326" s="0"/>
@@ -8605,10 +8673,10 @@
         <v>272538755204</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I327" s="0"/>
       <c r="J327" s="0"/>
@@ -8621,10 +8689,10 @@
         <v>272538755205</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I328" s="0"/>
       <c r="J328" s="0"/>
@@ -8637,10 +8705,10 @@
         <v>272538755206</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I329" s="0"/>
       <c r="J329" s="0"/>
@@ -8653,10 +8721,10 @@
         <v>272538755207</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F330" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I330" s="0"/>
       <c r="J330" s="0"/>
@@ -8669,10 +8737,10 @@
         <v>272538755208</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I331" s="0"/>
       <c r="J331" s="0"/>
@@ -8685,10 +8753,10 @@
         <v>272538755301</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I332" s="0"/>
       <c r="J332" s="0"/>
@@ -8701,10 +8769,10 @@
         <v>272538755302</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F333" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I333" s="0"/>
       <c r="J333" s="0"/>
@@ -8717,10 +8785,10 @@
         <v>272538755303</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I334" s="0"/>
       <c r="J334" s="0"/>
@@ -8733,10 +8801,10 @@
         <v>272538755304</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I335" s="0"/>
       <c r="J335" s="0"/>
@@ -8749,10 +8817,10 @@
         <v>272538755305</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I336" s="0"/>
       <c r="J336" s="0"/>
@@ -8765,10 +8833,10 @@
         <v>272538755306</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I337" s="0"/>
       <c r="J337" s="0"/>
@@ -8781,10 +8849,10 @@
         <v>272538755307</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F338" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I338" s="0"/>
       <c r="J338" s="0"/>
@@ -8797,10 +8865,10 @@
         <v>272538755401</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I339" s="0"/>
       <c r="J339" s="0"/>
@@ -8813,10 +8881,10 @@
         <v>272538755402</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I340" s="0"/>
       <c r="J340" s="0"/>
@@ -8829,10 +8897,10 @@
         <v>272538755403</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I341" s="0"/>
       <c r="J341" s="0"/>
@@ -8845,10 +8913,10 @@
         <v>272538755501</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F342" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I342" s="0"/>
       <c r="J342" s="0"/>
@@ -8861,10 +8929,10 @@
         <v>272538755502</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I343" s="0"/>
       <c r="J343" s="0"/>
@@ -8877,10 +8945,10 @@
         <v>272538755601</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F344" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I344" s="0"/>
       <c r="J344" s="0"/>
@@ -8893,10 +8961,10 @@
         <v>272538755602</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I345" s="0"/>
       <c r="J345" s="0"/>
@@ -8909,10 +8977,10 @@
         <v>272538755701</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F346" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I346" s="0"/>
       <c r="J346" s="0"/>
@@ -8925,10 +8993,10 @@
         <v>272538755702</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F347" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I347" s="0"/>
       <c r="J347" s="0"/>
@@ -8941,10 +9009,10 @@
         <v>272538756601</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I348" s="0"/>
       <c r="J348" s="0"/>
@@ -8957,10 +9025,10 @@
         <v>272538756701</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F349" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I349" s="0"/>
       <c r="J349" s="0"/>
@@ -8973,10 +9041,10 @@
         <v>272538756702</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F350" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I350" s="0"/>
       <c r="J350" s="0"/>
@@ -8989,10 +9057,10 @@
         <v>272538756703</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F351" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I351" s="0"/>
       <c r="J351" s="0"/>
@@ -9005,10 +9073,10 @@
         <v>272538756704</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F352" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I352" s="0"/>
       <c r="J352" s="0"/>
@@ -9021,10 +9089,10 @@
         <v>272538756705</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I353" s="0"/>
       <c r="J353" s="0"/>
@@ -9037,10 +9105,10 @@
         <v>272538756706</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F354" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I354" s="0"/>
       <c r="J354" s="0"/>
@@ -9053,10 +9121,10 @@
         <v>272538756707</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F355" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I355" s="0"/>
       <c r="J355" s="0"/>
@@ -9069,10 +9137,10 @@
         <v>272538756708</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F356" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I356" s="0"/>
       <c r="J356" s="0"/>
@@ -9085,10 +9153,10 @@
         <v>272538756709</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F357" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I357" s="0"/>
       <c r="J357" s="0"/>
@@ -9101,10 +9169,10 @@
         <v>272538756710</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F358" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I358" s="0"/>
       <c r="J358" s="0"/>
@@ -9117,10 +9185,10 @@
         <v>272538756711</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F359" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I359" s="0"/>
       <c r="J359" s="0"/>
@@ -9133,10 +9201,10 @@
         <v>272538756712</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I360" s="0"/>
       <c r="J360" s="0"/>
@@ -9149,10 +9217,10 @@
         <v>272538756801</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F361" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I361" s="0"/>
       <c r="J361" s="0"/>
@@ -9165,10 +9233,10 @@
         <v>272538756802</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F362" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I362" s="0"/>
       <c r="J362" s="0"/>
@@ -9181,10 +9249,10 @@
         <v>272538756803</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F363" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I363" s="0"/>
       <c r="J363" s="0"/>
@@ -9197,10 +9265,10 @@
         <v>272538756804</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F364" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I364" s="0"/>
       <c r="J364" s="0"/>
@@ -9213,10 +9281,10 @@
         <v>272538756805</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F365" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I365" s="0"/>
       <c r="J365" s="0"/>
@@ -9229,10 +9297,10 @@
         <v>272538756806</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F366" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I366" s="0"/>
       <c r="J366" s="0"/>
@@ -9245,10 +9313,10 @@
         <v>272538756401</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F367" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I367" s="0"/>
       <c r="J367" s="0"/>
@@ -9261,10 +9329,10 @@
         <v>272538756402</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F368" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I368" s="0"/>
       <c r="J368" s="0"/>
@@ -9277,10 +9345,10 @@
         <v>272538756403</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F369" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I369" s="0"/>
       <c r="J369" s="0"/>
@@ -9293,10 +9361,10 @@
         <v>272538757001</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F370" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I370" s="0"/>
       <c r="J370" s="0"/>
@@ -9309,10 +9377,10 @@
         <v>272538757002</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I371" s="0"/>
       <c r="J371" s="0"/>
@@ -9325,10 +9393,10 @@
         <v>272538757003</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I372" s="0"/>
       <c r="J372" s="0"/>
@@ -9341,10 +9409,10 @@
         <v>272538757004</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I373" s="0"/>
       <c r="J373" s="0"/>
@@ -9357,10 +9425,10 @@
         <v>272538757101</v>
       </c>
       <c r="D374" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I374" s="0"/>
       <c r="J374" s="0"/>
@@ -9373,10 +9441,10 @@
         <v>272538757102</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I375" s="0"/>
       <c r="J375" s="0"/>
@@ -9389,10 +9457,10 @@
         <v>272538757103</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I376" s="0"/>
       <c r="J376" s="0"/>
@@ -9405,10 +9473,10 @@
         <v>272538757201</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F377" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I377" s="0"/>
       <c r="J377" s="0"/>
@@ -9421,10 +9489,10 @@
         <v>272538757202</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F378" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I378" s="0"/>
       <c r="J378" s="0"/>
@@ -9437,10 +9505,10 @@
         <v>272538757203</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I379" s="0"/>
       <c r="J379" s="0"/>
@@ -9453,10 +9521,10 @@
         <v>272538757204</v>
       </c>
       <c r="D380" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F380" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I380" s="0"/>
       <c r="J380" s="0"/>
@@ -9469,10 +9537,10 @@
         <v>272538757205</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I381" s="0"/>
       <c r="J381" s="0"/>
@@ -9485,10 +9553,10 @@
         <v>272538757206</v>
       </c>
       <c r="D382" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F382" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I382" s="0"/>
       <c r="J382" s="0"/>
@@ -9501,10 +9569,10 @@
         <v>272538757207</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F383" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I383" s="0"/>
       <c r="J383" s="0"/>
@@ -9517,10 +9585,10 @@
         <v>272538757208</v>
       </c>
       <c r="D384" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F384" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I384" s="0"/>
       <c r="J384" s="0"/>
@@ -9533,10 +9601,10 @@
         <v>272538757209</v>
       </c>
       <c r="D385" s="0" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F385" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I385" s="0"/>
       <c r="J385" s="0"/>
@@ -9549,10 +9617,10 @@
         <v>272538753901</v>
       </c>
       <c r="D386" s="0" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F386" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I386" s="0"/>
       <c r="J386" s="0"/>
@@ -9565,10 +9633,10 @@
         <v>272538753902</v>
       </c>
       <c r="D387" s="0" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I387" s="0"/>
       <c r="J387" s="0"/>
@@ -9581,10 +9649,10 @@
         <v>272538754701</v>
       </c>
       <c r="D388" s="0" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F388" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I388" s="0"/>
       <c r="J388" s="0"/>
@@ -9597,10 +9665,10 @@
         <v>272538754702</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F389" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I389" s="0"/>
       <c r="J389" s="0"/>
@@ -9613,10 +9681,10 @@
         <v>272538754703</v>
       </c>
       <c r="D390" s="0" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F390" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I390" s="0"/>
       <c r="J390" s="0"/>
@@ -9629,10 +9697,10 @@
         <v>272538754704</v>
       </c>
       <c r="D391" s="0" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F391" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I391" s="0"/>
       <c r="J391" s="0"/>
@@ -9645,10 +9713,10 @@
         <v>272538754705</v>
       </c>
       <c r="D392" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I392" s="0"/>
       <c r="J392" s="0"/>
@@ -9661,10 +9729,10 @@
         <v>272538754801</v>
       </c>
       <c r="D393" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I393" s="0"/>
       <c r="J393" s="0"/>
@@ -9677,10 +9745,10 @@
         <v>272538754802</v>
       </c>
       <c r="D394" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I394" s="0"/>
       <c r="J394" s="0"/>
@@ -9693,10 +9761,10 @@
         <v>272538754803</v>
       </c>
       <c r="D395" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I395" s="0"/>
       <c r="J395" s="0"/>
@@ -9709,10 +9777,10 @@
         <v>272538754804</v>
       </c>
       <c r="D396" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F396" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I396" s="0"/>
       <c r="J396" s="0"/>
@@ -9725,10 +9793,10 @@
         <v>272538754805</v>
       </c>
       <c r="D397" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F397" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I397" s="0"/>
       <c r="J397" s="0"/>
@@ -9741,10 +9809,10 @@
         <v>272538754806</v>
       </c>
       <c r="D398" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F398" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I398" s="0"/>
       <c r="J398" s="0"/>
@@ -9757,10 +9825,10 @@
         <v>272538755901</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F399" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I399" s="0"/>
       <c r="J399" s="0"/>
@@ -9773,10 +9841,10 @@
         <v>272538755902</v>
       </c>
       <c r="D400" s="0" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I400" s="0"/>
       <c r="J400" s="0"/>
@@ -9789,10 +9857,10 @@
         <v>272538755903</v>
       </c>
       <c r="D401" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F401" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I401" s="0"/>
       <c r="J401" s="0"/>
@@ -9805,10 +9873,10 @@
         <v>272538755904</v>
       </c>
       <c r="D402" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F402" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I402" s="0"/>
       <c r="J402" s="0"/>
@@ -9821,10 +9889,10 @@
         <v>272538756001</v>
       </c>
       <c r="D403" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F403" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I403" s="0"/>
       <c r="J403" s="0"/>
@@ -9837,10 +9905,10 @@
         <v>272538756002</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F404" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I404" s="0"/>
       <c r="J404" s="0"/>
@@ -9853,10 +9921,10 @@
         <v>272538756003</v>
       </c>
       <c r="D405" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F405" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I405" s="0"/>
       <c r="J405" s="0"/>
@@ -9869,10 +9937,10 @@
         <v>272538756004</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F406" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I406" s="0"/>
       <c r="J406" s="0"/>
@@ -9885,10 +9953,10 @@
         <v>272538756501</v>
       </c>
       <c r="D407" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F407" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I407" s="0"/>
       <c r="J407" s="0"/>
@@ -9901,10 +9969,10 @@
         <v>272538756502</v>
       </c>
       <c r="D408" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I408" s="0"/>
       <c r="J408" s="0"/>
@@ -9917,10 +9985,10 @@
         <v>272538756503</v>
       </c>
       <c r="D409" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F409" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I409" s="0"/>
       <c r="J409" s="0"/>
@@ -9933,10 +10001,10 @@
         <v>272538756504</v>
       </c>
       <c r="D410" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F410" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I410" s="0"/>
       <c r="J410" s="0"/>
@@ -9949,10 +10017,10 @@
         <v>272538756505</v>
       </c>
       <c r="D411" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I411" s="0"/>
       <c r="J411" s="0"/>
@@ -9965,10 +10033,10 @@
         <v>272538756506</v>
       </c>
       <c r="D412" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F412" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I412" s="0"/>
       <c r="J412" s="0"/>
@@ -9981,10 +10049,10 @@
         <v>272538756507</v>
       </c>
       <c r="D413" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F413" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I413" s="0"/>
       <c r="J413" s="0"/>
@@ -9997,10 +10065,10 @@
         <v>272538754201</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F414" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I414" s="0"/>
       <c r="J414" s="0"/>
@@ -10013,10 +10081,10 @@
         <v>272538754202</v>
       </c>
       <c r="D415" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F415" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I415" s="0"/>
       <c r="J415" s="0"/>
@@ -10029,10 +10097,10 @@
         <v>272538754203</v>
       </c>
       <c r="D416" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F416" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I416" s="0"/>
       <c r="J416" s="0"/>
@@ -10045,10 +10113,10 @@
         <v>272538754204</v>
       </c>
       <c r="D417" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F417" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I417" s="0"/>
       <c r="J417" s="0"/>
@@ -10061,10 +10129,10 @@
         <v>272538754206</v>
       </c>
       <c r="D418" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I418" s="0"/>
       <c r="J418" s="0"/>
@@ -10077,10 +10145,10 @@
         <v>272538754207</v>
       </c>
       <c r="D419" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F419" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I419" s="0"/>
       <c r="J419" s="0"/>
@@ -10093,10 +10161,10 @@
         <v>272538754208</v>
       </c>
       <c r="D420" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F420" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I420" s="0"/>
       <c r="J420" s="0"/>
@@ -10109,10 +10177,10 @@
         <v>272538754209</v>
       </c>
       <c r="D421" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I421" s="0"/>
       <c r="J421" s="0"/>
@@ -10125,10 +10193,10 @@
         <v>272538754210</v>
       </c>
       <c r="D422" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I422" s="0"/>
       <c r="J422" s="0"/>
@@ -10141,10 +10209,10 @@
         <v>272538754301</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I423" s="0"/>
       <c r="J423" s="0"/>
@@ -10157,10 +10225,10 @@
         <v>272538754302</v>
       </c>
       <c r="D424" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I424" s="0"/>
       <c r="J424" s="0"/>
@@ -10173,10 +10241,10 @@
         <v>272538754303</v>
       </c>
       <c r="D425" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I425" s="0"/>
       <c r="J425" s="0"/>
@@ -10189,10 +10257,10 @@
         <v>272538754304</v>
       </c>
       <c r="D426" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F426" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I426" s="0"/>
       <c r="J426" s="0"/>
@@ -10205,10 +10273,10 @@
         <v>272538754306</v>
       </c>
       <c r="D427" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F427" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I427" s="0"/>
       <c r="J427" s="0"/>
@@ -10221,10 +10289,10 @@
         <v>272538754307</v>
       </c>
       <c r="D428" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F428" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I428" s="0"/>
       <c r="J428" s="0"/>
@@ -10237,10 +10305,10 @@
         <v>272538754401</v>
       </c>
       <c r="D429" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I429" s="0"/>
       <c r="J429" s="0"/>
@@ -10253,10 +10321,10 @@
         <v>272538754402</v>
       </c>
       <c r="D430" s="0" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F430" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I430" s="0"/>
       <c r="J430" s="0"/>
@@ -10269,10 +10337,10 @@
         <v>272538754403</v>
       </c>
       <c r="D431" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F431" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I431" s="0"/>
       <c r="J431" s="0"/>
@@ -10285,10 +10353,10 @@
         <v>272538754404</v>
       </c>
       <c r="D432" s="0" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I432" s="0"/>
       <c r="J432" s="0"/>
@@ -10301,10 +10369,10 @@
         <v>272538754405</v>
       </c>
       <c r="D433" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F433" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I433" s="0"/>
       <c r="J433" s="0"/>
@@ -10317,10 +10385,10 @@
         <v>272538754406</v>
       </c>
       <c r="D434" s="0" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F434" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I434" s="0"/>
       <c r="J434" s="0"/>
@@ -10333,10 +10401,10 @@
         <v>272538754501</v>
       </c>
       <c r="D435" s="0" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F435" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I435" s="0"/>
       <c r="J435" s="0"/>
@@ -10349,10 +10417,10 @@
         <v>272538754502</v>
       </c>
       <c r="D436" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I436" s="0"/>
       <c r="J436" s="0"/>
@@ -10365,10 +10433,10 @@
         <v>272538754503</v>
       </c>
       <c r="D437" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F437" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I437" s="0"/>
       <c r="J437" s="0"/>
@@ -10381,10 +10449,10 @@
         <v>272538757601</v>
       </c>
       <c r="D438" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I438" s="0"/>
       <c r="J438" s="0"/>
@@ -10397,10 +10465,10 @@
         <v>272538757602</v>
       </c>
       <c r="D439" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I439" s="0"/>
       <c r="J439" s="0"/>
@@ -10413,10 +10481,10 @@
         <v>272538754101</v>
       </c>
       <c r="D440" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I440" s="0"/>
       <c r="J440" s="0"/>
@@ -10429,10 +10497,10 @@
         <v>272538754102</v>
       </c>
       <c r="D441" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I441" s="0"/>
       <c r="J441" s="0"/>
@@ -10445,10 +10513,10 @@
         <v>272538754103</v>
       </c>
       <c r="D442" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F442" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I442" s="0"/>
       <c r="J442" s="0"/>
@@ -10461,10 +10529,10 @@
         <v>272538754104</v>
       </c>
       <c r="D443" s="0" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I443" s="0"/>
       <c r="J443" s="0"/>
@@ -10477,10 +10545,10 @@
         <v>272538754105</v>
       </c>
       <c r="D444" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I444" s="0"/>
       <c r="J444" s="0"/>
@@ -10493,10 +10561,10 @@
         <v>272538754106</v>
       </c>
       <c r="D445" s="0" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F445" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I445" s="0"/>
       <c r="J445" s="0"/>
@@ -10509,10 +10577,10 @@
         <v>272538754107</v>
       </c>
       <c r="D446" s="0" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F446" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I446" s="0"/>
       <c r="J446" s="0"/>
@@ -10525,10 +10593,10 @@
         <v>272538754108</v>
       </c>
       <c r="D447" s="0" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F447" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I447" s="0"/>
       <c r="J447" s="0"/>
@@ -10541,10 +10609,10 @@
         <v>272538754109</v>
       </c>
       <c r="D448" s="0" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F448" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I448" s="0"/>
       <c r="J448" s="0"/>
@@ -10557,10 +10625,10 @@
         <v>272538754111</v>
       </c>
       <c r="D449" s="0" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F449" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I449" s="0"/>
       <c r="J449" s="0"/>
@@ -10573,10 +10641,10 @@
         <v>272538756101</v>
       </c>
       <c r="D450" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F450" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I450" s="0"/>
       <c r="J450" s="0"/>
@@ -10589,10 +10657,10 @@
         <v>272538756102</v>
       </c>
       <c r="D451" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F451" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I451" s="0"/>
       <c r="J451" s="0"/>
@@ -10605,10 +10673,10 @@
         <v>272538756103</v>
       </c>
       <c r="D452" s="0" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F452" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I452" s="0"/>
       <c r="J452" s="0"/>
@@ -10621,10 +10689,10 @@
         <v>272538756104</v>
       </c>
       <c r="D453" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F453" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I453" s="0"/>
       <c r="J453" s="0"/>
@@ -10637,10 +10705,10 @@
         <v>272538756201</v>
       </c>
       <c r="D454" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F454" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I454" s="0"/>
       <c r="J454" s="0"/>
@@ -10653,10 +10721,10 @@
         <v>272538756202</v>
       </c>
       <c r="D455" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F455" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I455" s="0"/>
       <c r="J455" s="0"/>
@@ -10669,10 +10737,10 @@
         <v>272538756203</v>
       </c>
       <c r="D456" s="0" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F456" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I456" s="0"/>
       <c r="J456" s="0"/>
@@ -10685,10 +10753,10 @@
         <v>272538756301</v>
       </c>
       <c r="D457" s="0" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F457" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I457" s="0"/>
       <c r="J457" s="0"/>
@@ -10701,10 +10769,10 @@
         <v>272538756302</v>
       </c>
       <c r="D458" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F458" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I458" s="0"/>
       <c r="J458" s="0"/>
@@ -10717,10 +10785,10 @@
         <v>272538756303</v>
       </c>
       <c r="D459" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F459" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I459" s="0"/>
       <c r="J459" s="0"/>
@@ -10733,10 +10801,10 @@
         <v>272538756304</v>
       </c>
       <c r="D460" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F460" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I460" s="0"/>
       <c r="J460" s="0"/>
@@ -10749,10 +10817,10 @@
         <v>272538756305</v>
       </c>
       <c r="D461" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F461" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I461" s="0"/>
       <c r="J461" s="0"/>
@@ -10765,10 +10833,10 @@
         <v>272171490901</v>
       </c>
       <c r="D462" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F462" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I462" s="0"/>
       <c r="J462" s="0"/>
@@ -10781,10 +10849,10 @@
         <v>272171490601</v>
       </c>
       <c r="D463" s="0" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F463" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I463" s="0"/>
       <c r="J463" s="0"/>
@@ -10797,10 +10865,10 @@
         <v>272171491001</v>
       </c>
       <c r="D464" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F464" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I464" s="0"/>
       <c r="J464" s="0"/>
@@ -10813,10 +10881,10 @@
         <v>272171491002</v>
       </c>
       <c r="D465" s="0" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F465" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I465" s="0"/>
       <c r="J465" s="0"/>
@@ -10829,10 +10897,10 @@
         <v>272171491003</v>
       </c>
       <c r="D466" s="0" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F466" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I466" s="0"/>
       <c r="J466" s="0"/>
@@ -10845,10 +10913,10 @@
         <v>272171491101</v>
       </c>
       <c r="D467" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I467" s="0"/>
       <c r="J467" s="0"/>
@@ -10861,10 +10929,10 @@
         <v>272171491201</v>
       </c>
       <c r="D468" s="0" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F468" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I468" s="0"/>
       <c r="J468" s="0"/>
@@ -10877,10 +10945,10 @@
         <v>272171492001</v>
       </c>
       <c r="D469" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I469" s="0"/>
       <c r="J469" s="0"/>
@@ -10893,10 +10961,10 @@
         <v>272171492002</v>
       </c>
       <c r="D470" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I470" s="0"/>
       <c r="J470" s="0"/>
@@ -10909,10 +10977,10 @@
         <v>272171492501</v>
       </c>
       <c r="D471" s="0" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F471" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I471" s="0"/>
       <c r="J471" s="0"/>
@@ -10925,10 +10993,10 @@
         <v>272171492003</v>
       </c>
       <c r="D472" s="0" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F472" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I472" s="0"/>
       <c r="J472" s="0"/>
@@ -10941,10 +11009,10 @@
         <v>272171494801</v>
       </c>
       <c r="D473" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F473" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I473" s="0"/>
       <c r="J473" s="0"/>
@@ -10957,10 +11025,10 @@
         <v>2721714910101</v>
       </c>
       <c r="D474" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F474" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I474" s="0"/>
       <c r="J474" s="0"/>
@@ -10973,10 +11041,10 @@
         <v>2721714910201</v>
       </c>
       <c r="D475" s="0" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F475" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I475" s="0"/>
       <c r="J475" s="0"/>
@@ -10989,10 +11057,10 @@
         <v>2721714910301</v>
       </c>
       <c r="D476" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I476" s="0"/>
       <c r="J476" s="0"/>
@@ -11005,10 +11073,10 @@
         <v>2721714910302</v>
       </c>
       <c r="D477" s="0" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I477" s="0"/>
       <c r="J477" s="0"/>
@@ -11021,10 +11089,10 @@
         <v>272171492901</v>
       </c>
       <c r="D478" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F478" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I478" s="0"/>
       <c r="J478" s="0"/>
@@ -11037,10 +11105,10 @@
         <v>272171492601</v>
       </c>
       <c r="D479" s="0" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F479" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I479" s="0"/>
       <c r="J479" s="0"/>
@@ -11053,10 +11121,10 @@
         <v>272171494802</v>
       </c>
       <c r="D480" s="0" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F480" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I480" s="0"/>
       <c r="J480" s="0"/>
@@ -11069,10 +11137,10 @@
         <v>272171491201</v>
       </c>
       <c r="D481" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F481" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I481" s="0"/>
       <c r="J481" s="0"/>
@@ -11085,10 +11153,10 @@
         <v>272171490801</v>
       </c>
       <c r="D482" s="0" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F482" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I482" s="0"/>
       <c r="J482" s="0"/>
@@ -11101,10 +11169,10 @@
         <v>272171490802</v>
       </c>
       <c r="D483" s="0" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I483" s="0"/>
       <c r="J483" s="0"/>
@@ -11117,10 +11185,10 @@
         <v>273425266101</v>
       </c>
       <c r="D484" s="0" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F484" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I484" s="0"/>
       <c r="J484" s="0"/>
@@ -11133,10 +11201,10 @@
         <v>273425266201</v>
       </c>
       <c r="D485" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F485" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I485" s="0"/>
       <c r="J485" s="0"/>
@@ -11149,10 +11217,10 @@
         <v>273425265001</v>
       </c>
       <c r="D486" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F486" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I486" s="0"/>
       <c r="J486" s="0"/>
@@ -11165,10 +11233,10 @@
         <v>273425266601</v>
       </c>
       <c r="D487" s="0" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F487" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I487" s="0"/>
       <c r="J487" s="0"/>
@@ -11181,10 +11249,10 @@
         <v>273425266901</v>
       </c>
       <c r="D488" s="0" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F488" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I488" s="0"/>
       <c r="J488" s="0"/>
@@ -11197,10 +11265,10 @@
         <v>273425267201</v>
       </c>
       <c r="D489" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I489" s="0"/>
       <c r="J489" s="0"/>
@@ -11213,10 +11281,10 @@
         <v>273425267301</v>
       </c>
       <c r="D490" s="0" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F490" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I490" s="0"/>
       <c r="J490" s="0"/>
@@ -11229,10 +11297,10 @@
         <v>273425263301</v>
       </c>
       <c r="D491" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F491" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I491" s="0"/>
       <c r="J491" s="0"/>
@@ -11245,10 +11313,10 @@
         <v>273425263401</v>
       </c>
       <c r="D492" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I492" s="0"/>
       <c r="J492" s="0"/>
@@ -11261,10 +11329,10 @@
         <v>273425263501</v>
       </c>
       <c r="D493" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I493" s="0"/>
       <c r="J493" s="0"/>
@@ -11277,10 +11345,10 @@
         <v>273425263502</v>
       </c>
       <c r="D494" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F494" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I494" s="0"/>
       <c r="J494" s="0"/>
@@ -11293,10 +11361,10 @@
         <v>273425265501</v>
       </c>
       <c r="D495" s="0" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F495" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I495" s="0"/>
       <c r="J495" s="0"/>
@@ -11309,10 +11377,10 @@
         <v>273425265601</v>
       </c>
       <c r="D496" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I496" s="0"/>
       <c r="J496" s="0"/>
@@ -11325,10 +11393,10 @@
         <v>273425266001</v>
       </c>
       <c r="D497" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I497" s="0"/>
       <c r="J497" s="0"/>
@@ -11341,10 +11409,10 @@
         <v>273425267601</v>
       </c>
       <c r="D498" s="0" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F498" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I498" s="0"/>
       <c r="J498" s="0"/>
@@ -11357,10 +11425,10 @@
         <v>273425267602</v>
       </c>
       <c r="D499" s="0" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F499" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I499" s="0"/>
       <c r="J499" s="0"/>
@@ -11373,10 +11441,10 @@
         <v>273425267603</v>
       </c>
       <c r="D500" s="0" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I500" s="0"/>
       <c r="J500" s="0"/>
@@ -11389,10 +11457,10 @@
         <v>273425267701</v>
       </c>
       <c r="D501" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I501" s="0"/>
       <c r="J501" s="0"/>
@@ -11405,10 +11473,10 @@
         <v>273425267702</v>
       </c>
       <c r="D502" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I502" s="0"/>
       <c r="J502" s="0"/>
@@ -11421,10 +11489,10 @@
         <v>273425267703</v>
       </c>
       <c r="D503" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I503" s="0"/>
       <c r="J503" s="0"/>
@@ -11437,10 +11505,10 @@
         <v>273425260101</v>
       </c>
       <c r="D504" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I504" s="0"/>
       <c r="J504" s="0"/>
@@ -11453,10 +11521,10 @@
         <v>273425260102</v>
       </c>
       <c r="D505" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I505" s="0"/>
       <c r="J505" s="0"/>
@@ -11469,10 +11537,10 @@
         <v>273425260201</v>
       </c>
       <c r="D506" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F506" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I506" s="0"/>
       <c r="J506" s="0"/>
@@ -11485,10 +11553,10 @@
         <v>273425260202</v>
       </c>
       <c r="D507" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I507" s="0"/>
       <c r="J507" s="0"/>
@@ -11501,10 +11569,10 @@
         <v>273425260401</v>
       </c>
       <c r="D508" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F508" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I508" s="0"/>
       <c r="J508" s="0"/>
@@ -11517,10 +11585,10 @@
         <v>273425260402</v>
       </c>
       <c r="D509" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I509" s="0"/>
       <c r="J509" s="0"/>
@@ -11533,10 +11601,10 @@
         <v>273425260501</v>
       </c>
       <c r="D510" s="0" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F510" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I510" s="0"/>
       <c r="J510" s="0"/>
@@ -11549,10 +11617,10 @@
         <v>273425261101</v>
       </c>
       <c r="D511" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I511" s="0"/>
       <c r="J511" s="0"/>
@@ -11565,10 +11633,10 @@
         <v>273425261102</v>
       </c>
       <c r="D512" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F512" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I512" s="0"/>
       <c r="J512" s="0"/>
@@ -11581,10 +11649,10 @@
         <v>273425261103</v>
       </c>
       <c r="D513" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F513" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I513" s="0"/>
       <c r="J513" s="0"/>
@@ -11597,10 +11665,10 @@
         <v>273425261201</v>
       </c>
       <c r="D514" s="0" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F514" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I514" s="0"/>
       <c r="J514" s="0"/>
@@ -11613,10 +11681,10 @@
         <v>273425261301</v>
       </c>
       <c r="D515" s="0" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I515" s="0"/>
       <c r="J515" s="0"/>
@@ -11629,10 +11697,10 @@
         <v>273425261401</v>
       </c>
       <c r="D516" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F516" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I516" s="0"/>
       <c r="J516" s="0"/>
@@ -11645,10 +11713,10 @@
         <v>273425261501</v>
       </c>
       <c r="D517" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I517" s="0"/>
       <c r="J517" s="0"/>
@@ -11661,10 +11729,10 @@
         <v>273425261502</v>
       </c>
       <c r="D518" s="0" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F518" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I518" s="0"/>
       <c r="J518" s="0"/>
@@ -11677,10 +11745,10 @@
         <v>273425261601</v>
       </c>
       <c r="D519" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I519" s="0"/>
       <c r="J519" s="0"/>
@@ -11693,10 +11761,10 @@
         <v>273425261701</v>
       </c>
       <c r="D520" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I520" s="0"/>
       <c r="J520" s="0"/>
@@ -11709,10 +11777,10 @@
         <v>273425261801</v>
       </c>
       <c r="D521" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I521" s="0"/>
       <c r="J521" s="0"/>
@@ -11725,10 +11793,10 @@
         <v>273425261802</v>
       </c>
       <c r="D522" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I522" s="0"/>
       <c r="J522" s="0"/>
@@ -11741,10 +11809,10 @@
         <v>273425261803</v>
       </c>
       <c r="D523" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I523" s="0"/>
       <c r="J523" s="0"/>
@@ -11757,10 +11825,10 @@
         <v>273425261901</v>
       </c>
       <c r="D524" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I524" s="0"/>
       <c r="J524" s="0"/>
@@ -11773,10 +11841,10 @@
         <v>273425263601</v>
       </c>
       <c r="D525" s="0" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I525" s="0"/>
       <c r="J525" s="0"/>
@@ -11786,12 +11854,12 @@
       <c r="I526" s="0"/>
       <c r="J526" s="0"/>
     </row>
-    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B527" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="C527" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="C527" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="D527" s="0" t="s">
         <v>659</v>
@@ -11806,15 +11874,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B528" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="C528" s="3" t="n">
-        <v>2</v>
+        <v>657</v>
+      </c>
+      <c r="C528" s="5" t="s">
+        <v>660</v>
       </c>
       <c r="D528" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H528" s="0" t="s">
         <v>33</v>
@@ -11826,15 +11894,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B529" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="C529" s="3" t="n">
-        <v>3</v>
+        <v>657</v>
+      </c>
+      <c r="C529" s="6" t="s">
+        <v>662</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H529" s="0" t="s">
         <v>33</v>
@@ -11851,15 +11919,15 @@
       <c r="I530" s="0"/>
       <c r="J530" s="0"/>
     </row>
-    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B531" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="C531" s="3" t="n">
-        <v>1</v>
+        <v>664</v>
+      </c>
+      <c r="C531" s="6" t="s">
+        <v>658</v>
       </c>
       <c r="D531" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H531" s="0" t="s">
         <v>38</v>
@@ -11871,15 +11939,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B532" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="C532" s="3" t="n">
-        <v>2</v>
+        <v>664</v>
+      </c>
+      <c r="C532" s="6" t="s">
+        <v>660</v>
       </c>
       <c r="D532" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H532" s="0" t="s">
         <v>38</v>
@@ -11891,20 +11959,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C533" s="0"/>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C533" s="7"/>
       <c r="I533" s="0"/>
       <c r="J533" s="0"/>
     </row>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B534" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="C534" s="3" t="n">
-        <v>1</v>
+        <v>667</v>
+      </c>
+      <c r="C534" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="D534" s="0" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="H534" s="0" t="s">
         <v>69</v>
@@ -11916,15 +11984,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B535" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="C535" s="3" t="n">
-        <v>2</v>
+        <v>667</v>
+      </c>
+      <c r="C535" s="6" t="s">
+        <v>670</v>
       </c>
       <c r="D535" s="0" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="H535" s="0" t="s">
         <v>69</v>
@@ -11936,15 +12004,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B536" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="C536" s="3" t="n">
-        <v>3</v>
+        <v>667</v>
+      </c>
+      <c r="C536" s="6" t="s">
+        <v>672</v>
       </c>
       <c r="D536" s="0" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="H536" s="0" t="s">
         <v>69</v>
@@ -11956,15 +12024,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B537" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="C537" s="3" t="n">
-        <v>4</v>
+        <v>667</v>
+      </c>
+      <c r="C537" s="6" t="s">
+        <v>674</v>
       </c>
       <c r="D537" s="0" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="H537" s="0" t="s">
         <v>69</v>
@@ -11976,15 +12044,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B538" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="C538" s="3" t="n">
-        <v>5</v>
+        <v>667</v>
+      </c>
+      <c r="C538" s="6" t="s">
+        <v>676</v>
       </c>
       <c r="D538" s="0" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="H538" s="0" t="s">
         <v>69</v>
@@ -11996,15 +12064,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B539" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="C539" s="3" t="n">
-        <v>6</v>
+        <v>667</v>
+      </c>
+      <c r="C539" s="6" t="s">
+        <v>678</v>
       </c>
       <c r="D539" s="0" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="H539" s="0" t="s">
         <v>69</v>
@@ -12013,18 +12081,18 @@
         <v>434</v>
       </c>
       <c r="J539" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B540" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="C540" s="3" t="n">
-        <v>7</v>
+        <v>667</v>
+      </c>
+      <c r="C540" s="6" t="s">
+        <v>681</v>
       </c>
       <c r="D540" s="0" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="H540" s="0" t="s">
         <v>69</v>
@@ -12036,15 +12104,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B541" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="C541" s="3" t="n">
-        <v>8</v>
+        <v>667</v>
+      </c>
+      <c r="C541" s="6" t="s">
+        <v>683</v>
       </c>
       <c r="D541" s="0" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="H541" s="0" t="s">
         <v>69</v>
@@ -12056,15 +12124,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B542" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="C542" s="3" t="n">
-        <v>9</v>
+        <v>667</v>
+      </c>
+      <c r="C542" s="6" t="s">
+        <v>685</v>
       </c>
       <c r="D542" s="0" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="H542" s="0" t="s">
         <v>69</v>
@@ -12073,18 +12141,18 @@
         <v>434</v>
       </c>
       <c r="J542" s="2" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B543" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C543" s="3" t="n">
         <v>10</v>
       </c>
       <c r="D543" s="0" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="H543" s="0" t="s">
         <v>69</v>
@@ -12093,18 +12161,18 @@
         <v>434</v>
       </c>
       <c r="J543" s="2" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B544" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C544" s="3" t="n">
         <v>11</v>
       </c>
       <c r="D544" s="0" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="H544" s="0" t="s">
         <v>69</v>
@@ -12118,13 +12186,13 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B545" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C545" s="3" t="n">
         <v>12</v>
       </c>
       <c r="D545" s="0" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H545" s="0" t="s">
         <v>69</v>
@@ -12138,13 +12206,13 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B546" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C546" s="3" t="n">
         <v>13</v>
       </c>
       <c r="D546" s="0" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="H546" s="0" t="s">
         <v>69</v>
@@ -12158,13 +12226,13 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B547" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C547" s="3" t="n">
         <v>14</v>
       </c>
       <c r="D547" s="0" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="H547" s="0" t="s">
         <v>69</v>
@@ -12178,13 +12246,13 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B548" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C548" s="3" t="n">
         <v>15</v>
       </c>
       <c r="D548" s="0" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="H548" s="0" t="s">
         <v>69</v>
@@ -12193,18 +12261,18 @@
         <v>434</v>
       </c>
       <c r="J548" s="2" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B549" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C549" s="3" t="n">
         <v>16</v>
       </c>
       <c r="D549" s="0" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="H549" s="0" t="s">
         <v>69</v>
@@ -12218,13 +12286,13 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B550" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C550" s="3" t="n">
         <v>17</v>
       </c>
       <c r="D550" s="0" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="H550" s="0" t="s">
         <v>69</v>
@@ -12238,13 +12306,13 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B551" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C551" s="3" t="n">
         <v>18</v>
       </c>
       <c r="D551" s="0" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="H551" s="0" t="s">
         <v>69</v>
@@ -12258,13 +12326,13 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B552" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C552" s="3" t="n">
         <v>19</v>
       </c>
       <c r="D552" s="0" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="H552" s="0" t="s">
         <v>69</v>
@@ -12273,18 +12341,18 @@
         <v>434</v>
       </c>
       <c r="J552" s="2" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B553" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C553" s="3" t="n">
         <v>20</v>
       </c>
       <c r="D553" s="0" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="H553" s="0" t="s">
         <v>69</v>
@@ -12298,13 +12366,13 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B554" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C554" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="H554" s="0" t="s">
         <v>69</v>
@@ -12318,13 +12386,13 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B555" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C555" s="3" t="n">
         <v>22</v>
       </c>
       <c r="D555" s="0" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="H555" s="0" t="s">
         <v>69</v>
@@ -12338,13 +12406,13 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B556" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C556" s="3" t="n">
         <v>23</v>
       </c>
       <c r="D556" s="0" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="H556" s="0" t="s">
         <v>69</v>
@@ -12353,18 +12421,18 @@
         <v>434</v>
       </c>
       <c r="J556" s="2" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B557" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C557" s="3" t="n">
         <v>24</v>
       </c>
       <c r="D557" s="0" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="H557" s="0" t="s">
         <v>69</v>
@@ -12373,18 +12441,18 @@
         <v>434</v>
       </c>
       <c r="J557" s="2" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B558" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C558" s="3" t="n">
         <v>25</v>
       </c>
       <c r="D558" s="0" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="H558" s="0" t="s">
         <v>69</v>
@@ -12398,13 +12466,13 @@
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B559" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C559" s="3" t="n">
         <v>26</v>
       </c>
       <c r="D559" s="0" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="H559" s="0" t="s">
         <v>69</v>
@@ -12418,13 +12486,13 @@
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B560" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C560" s="3" t="n">
         <v>27</v>
       </c>
       <c r="D560" s="0" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="H560" s="0" t="s">
         <v>69</v>
@@ -12438,13 +12506,13 @@
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B561" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C561" s="3" t="n">
         <v>28</v>
       </c>
       <c r="D561" s="0" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="H561" s="0" t="s">
         <v>69</v>
@@ -12458,13 +12526,13 @@
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B562" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C562" s="3" t="n">
         <v>29</v>
       </c>
       <c r="D562" s="0" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="H562" s="0" t="s">
         <v>69</v>
@@ -12478,13 +12546,13 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B563" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C563" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D563" s="0" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="H563" s="0" t="s">
         <v>69</v>
@@ -12498,13 +12566,13 @@
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B564" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C564" s="3" t="n">
         <v>31</v>
       </c>
       <c r="D564" s="0" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="H564" s="0" t="s">
         <v>69</v>
@@ -12518,13 +12586,13 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B565" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C565" s="3" t="n">
         <v>32</v>
       </c>
       <c r="D565" s="0" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="H565" s="0" t="s">
         <v>69</v>
@@ -12538,13 +12606,13 @@
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B566" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C566" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D566" s="0" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="H566" s="0" t="s">
         <v>69</v>
@@ -12558,13 +12626,13 @@
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B567" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C567" s="3" t="n">
         <v>34</v>
       </c>
       <c r="D567" s="0" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="H567" s="0" t="s">
         <v>69</v>
@@ -12578,13 +12646,13 @@
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B568" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C568" s="3" t="n">
         <v>35</v>
       </c>
       <c r="D568" s="0" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="H568" s="0" t="s">
         <v>69</v>
@@ -12598,13 +12666,13 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B569" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C569" s="3" t="n">
         <v>36</v>
       </c>
       <c r="D569" s="0" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="H569" s="0" t="s">
         <v>69</v>
@@ -12618,13 +12686,13 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B570" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C570" s="3" t="n">
         <v>37</v>
       </c>
       <c r="D570" s="0" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H570" s="0" t="s">
         <v>69</v>
@@ -12638,13 +12706,13 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B571" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C571" s="3" t="n">
         <v>38</v>
       </c>
       <c r="D571" s="0" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="H571" s="0" t="s">
         <v>69</v>
@@ -12658,13 +12726,13 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B572" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C572" s="3" t="n">
         <v>39</v>
       </c>
       <c r="D572" s="0" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="H572" s="0" t="s">
         <v>69</v>
@@ -12678,13 +12746,13 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B573" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C573" s="3" t="n">
         <v>40</v>
       </c>
       <c r="D573" s="0" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="H573" s="0" t="s">
         <v>69</v>
@@ -12693,18 +12761,18 @@
         <v>434</v>
       </c>
       <c r="J573" s="2" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B574" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C574" s="3" t="n">
         <v>41</v>
       </c>
       <c r="D574" s="0" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="H574" s="0" t="s">
         <v>69</v>
@@ -12713,18 +12781,18 @@
         <v>434</v>
       </c>
       <c r="J574" s="2" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B575" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C575" s="3" t="n">
         <v>42</v>
       </c>
       <c r="D575" s="0" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="H575" s="0" t="s">
         <v>69</v>
@@ -12738,13 +12806,13 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B576" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C576" s="3" t="n">
         <v>43</v>
       </c>
       <c r="D576" s="0" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="H576" s="0" t="s">
         <v>69</v>
@@ -12758,13 +12826,13 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B577" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C577" s="3" t="n">
         <v>44</v>
       </c>
       <c r="D577" s="0" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="H577" s="0" t="s">
         <v>69</v>
@@ -12778,13 +12846,13 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B578" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C578" s="3" t="n">
         <v>45</v>
       </c>
       <c r="D578" s="0" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="H578" s="0" t="s">
         <v>69</v>
@@ -12798,13 +12866,13 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B579" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C579" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D579" s="0" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="H579" s="0" t="s">
         <v>69</v>
@@ -12818,13 +12886,13 @@
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B580" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C580" s="3" t="n">
         <v>47</v>
       </c>
       <c r="D580" s="0" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="H580" s="0" t="s">
         <v>69</v>
@@ -12838,13 +12906,13 @@
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B581" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C581" s="3" t="n">
         <v>48</v>
       </c>
       <c r="D581" s="0" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="H581" s="0" t="s">
         <v>69</v>
@@ -12858,13 +12926,13 @@
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B582" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C582" s="3" t="n">
         <v>49</v>
       </c>
       <c r="D582" s="0" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="H582" s="0" t="s">
         <v>69</v>
@@ -12878,13 +12946,13 @@
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B583" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C583" s="3" t="n">
         <v>50</v>
       </c>
       <c r="D583" s="0" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="H583" s="0" t="s">
         <v>69</v>
@@ -12898,13 +12966,13 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B584" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C584" s="3" t="n">
         <v>51</v>
       </c>
       <c r="D584" s="0" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="H584" s="0" t="s">
         <v>69</v>
@@ -12918,13 +12986,13 @@
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B585" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C585" s="3" t="n">
         <v>52</v>
       </c>
       <c r="D585" s="0" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="H585" s="0" t="s">
         <v>69</v>
@@ -12938,13 +13006,13 @@
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B586" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C586" s="3" t="n">
         <v>53</v>
       </c>
       <c r="D586" s="0" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="H586" s="0" t="s">
         <v>69</v>
@@ -12958,13 +13026,13 @@
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B587" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C587" s="3" t="n">
         <v>54</v>
       </c>
       <c r="D587" s="0" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="H587" s="0" t="s">
         <v>69</v>
@@ -12978,13 +13046,13 @@
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B588" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C588" s="3" t="n">
         <v>55</v>
       </c>
       <c r="D588" s="0" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="H588" s="0" t="s">
         <v>69</v>
@@ -12998,13 +13066,13 @@
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B589" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C589" s="3" t="n">
         <v>56</v>
       </c>
       <c r="D589" s="0" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="H589" s="0" t="s">
         <v>69</v>
@@ -13018,13 +13086,13 @@
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B590" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C590" s="3" t="n">
         <v>57</v>
       </c>
       <c r="D590" s="0" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="H590" s="0" t="s">
         <v>69</v>
@@ -13038,13 +13106,13 @@
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B591" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C591" s="3" t="n">
         <v>58</v>
       </c>
       <c r="D591" s="0" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="H591" s="0" t="s">
         <v>69</v>
@@ -13058,13 +13126,13 @@
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B592" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C592" s="3" t="n">
         <v>59</v>
       </c>
       <c r="D592" s="0" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="H592" s="0" t="s">
         <v>69</v>
@@ -13078,13 +13146,13 @@
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B593" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C593" s="3" t="n">
         <v>60</v>
       </c>
       <c r="D593" s="0" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="H593" s="0" t="s">
         <v>69</v>
@@ -13098,13 +13166,13 @@
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B594" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C594" s="3" t="n">
         <v>61</v>
       </c>
       <c r="D594" s="0" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="H594" s="0" t="s">
         <v>69</v>
@@ -13113,18 +13181,18 @@
         <v>434</v>
       </c>
       <c r="J594" s="2" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B595" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C595" s="3" t="n">
         <v>62</v>
       </c>
       <c r="D595" s="0" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="H595" s="0" t="s">
         <v>69</v>
@@ -13138,13 +13206,13 @@
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B596" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C596" s="3" t="n">
         <v>63</v>
       </c>
       <c r="D596" s="0" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="H596" s="0" t="s">
         <v>69</v>
@@ -13158,13 +13226,13 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B597" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C597" s="3" t="n">
         <v>64</v>
       </c>
       <c r="D597" s="0" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="H597" s="0" t="s">
         <v>69</v>
@@ -13178,13 +13246,13 @@
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B598" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C598" s="3" t="n">
         <v>65</v>
       </c>
       <c r="D598" s="0" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="H598" s="0" t="s">
         <v>69</v>
@@ -13198,13 +13266,13 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B599" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C599" s="3" t="n">
         <v>68</v>
       </c>
       <c r="D599" s="0" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="H599" s="0" t="s">
         <v>69</v>
@@ -13218,13 +13286,13 @@
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B600" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C600" s="3" t="n">
         <v>69</v>
       </c>
       <c r="D600" s="0" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="H600" s="0" t="s">
         <v>69</v>
@@ -13238,13 +13306,13 @@
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B601" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C601" s="3" t="n">
         <v>70</v>
       </c>
       <c r="D601" s="0" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="H601" s="0" t="s">
         <v>69</v>
@@ -13258,13 +13326,13 @@
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B602" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C602" s="3" t="n">
         <v>98</v>
       </c>
       <c r="D602" s="0" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="H602" s="0" t="s">
         <v>69</v>
@@ -13273,18 +13341,18 @@
         <v>434</v>
       </c>
       <c r="J602" s="2" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B603" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C603" s="3" t="n">
         <v>99</v>
       </c>
       <c r="D603" s="0" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="H603" s="0" t="s">
         <v>69</v>
@@ -13293,7 +13361,7 @@
         <v>434</v>
       </c>
       <c r="J603" s="2" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13301,15 +13369,15 @@
       <c r="I604" s="0"/>
       <c r="J604" s="0"/>
     </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B605" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="C605" s="3" t="n">
-        <v>1</v>
+        <v>759</v>
+      </c>
+      <c r="C605" s="6" t="s">
+        <v>658</v>
       </c>
       <c r="D605" s="0" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="H605" s="0" t="s">
         <v>78</v>
@@ -13317,15 +13385,15 @@
       <c r="I605" s="0"/>
       <c r="J605" s="0"/>
     </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B606" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="C606" s="3" t="n">
-        <v>2</v>
+        <v>759</v>
+      </c>
+      <c r="C606" s="6" t="s">
+        <v>660</v>
       </c>
       <c r="D606" s="0" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="H606" s="0" t="s">
         <v>78</v>
@@ -13333,15 +13401,15 @@
       <c r="I606" s="0"/>
       <c r="J606" s="0"/>
     </row>
-    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B607" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="C607" s="3" t="n">
-        <v>3</v>
+        <v>759</v>
+      </c>
+      <c r="C607" s="6" t="s">
+        <v>662</v>
       </c>
       <c r="D607" s="0" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="H607" s="0" t="s">
         <v>78</v>
@@ -13349,20 +13417,20 @@
       <c r="I607" s="0"/>
       <c r="J607" s="0"/>
     </row>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C608" s="0"/>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C608" s="7"/>
       <c r="I608" s="0"/>
       <c r="J608" s="0"/>
     </row>
-    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B609" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="C609" s="3" t="n">
-        <v>1</v>
+        <v>763</v>
+      </c>
+      <c r="C609" s="6" t="s">
+        <v>658</v>
       </c>
       <c r="D609" s="0" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="H609" s="0" t="s">
         <v>81</v>
@@ -13370,15 +13438,15 @@
       <c r="I609" s="0"/>
       <c r="J609" s="0"/>
     </row>
-    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B610" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="C610" s="3" t="n">
-        <v>2</v>
+        <v>763</v>
+      </c>
+      <c r="C610" s="6" t="s">
+        <v>660</v>
       </c>
       <c r="D610" s="0" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="H610" s="0" t="s">
         <v>81</v>
@@ -13386,15 +13454,15 @@
       <c r="I610" s="0"/>
       <c r="J610" s="0"/>
     </row>
-    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B611" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="C611" s="3" t="n">
-        <v>3</v>
+        <v>763</v>
+      </c>
+      <c r="C611" s="6" t="s">
+        <v>662</v>
       </c>
       <c r="D611" s="0" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="H611" s="0" t="s">
         <v>81</v>
@@ -13402,20 +13470,20 @@
       <c r="I611" s="0"/>
       <c r="J611" s="0"/>
     </row>
-    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C612" s="0"/>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C612" s="7"/>
       <c r="I612" s="0"/>
       <c r="J612" s="0"/>
     </row>
-    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B613" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="C613" s="3" t="n">
-        <v>1</v>
+        <v>767</v>
+      </c>
+      <c r="C613" s="6" t="s">
+        <v>658</v>
       </c>
       <c r="D613" s="0" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="H613" s="0" t="s">
         <v>84</v>
@@ -13427,15 +13495,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B614" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="C614" s="3" t="n">
-        <v>2</v>
+        <v>767</v>
+      </c>
+      <c r="C614" s="6" t="s">
+        <v>660</v>
       </c>
       <c r="D614" s="0" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="H614" s="0" t="s">
         <v>84</v>
@@ -13447,15 +13515,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B615" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="C615" s="3" t="n">
-        <v>3</v>
+        <v>767</v>
+      </c>
+      <c r="C615" s="6" t="s">
+        <v>662</v>
       </c>
       <c r="D615" s="0" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="H615" s="0" t="s">
         <v>84</v>
@@ -13467,102 +13535,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C616" s="0"/>
-    </row>
-    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C616" s="7"/>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B617" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="C617" s="3" t="n">
-        <v>1</v>
+        <v>771</v>
+      </c>
+      <c r="C617" s="6" t="s">
+        <v>658</v>
       </c>
       <c r="D617" s="0" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="H617" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B618" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="C618" s="3" t="n">
-        <v>2</v>
+        <v>771</v>
+      </c>
+      <c r="C618" s="6" t="s">
+        <v>660</v>
       </c>
       <c r="D618" s="0" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="H618" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B619" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="C619" s="3" t="n">
-        <v>3</v>
+        <v>771</v>
+      </c>
+      <c r="C619" s="6" t="s">
+        <v>662</v>
       </c>
       <c r="D619" s="0" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="H619" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B620" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="C620" s="3" t="n">
-        <v>4</v>
+        <v>771</v>
+      </c>
+      <c r="C620" s="6" t="s">
+        <v>775</v>
       </c>
       <c r="D620" s="0" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="H620" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B621" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="C621" s="3" t="n">
-        <v>5</v>
+        <v>771</v>
+      </c>
+      <c r="C621" s="6" t="s">
+        <v>777</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="H621" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B622" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="C622" s="3" t="n">
-        <v>6</v>
+        <v>771</v>
+      </c>
+      <c r="C622" s="6" t="s">
+        <v>779</v>
       </c>
       <c r="D622" s="0" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="H622" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B623" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="C623" s="3" t="n">
-        <v>7</v>
+        <v>771</v>
+      </c>
+      <c r="C623" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="D623" s="0" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="H623" s="0" t="s">
         <v>91</v>
